--- a/backend/src/main/resources/excel/U5C4.xlsx
+++ b/backend/src/main/resources/excel/U5C4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4141599833965302</v>
+        <v>0.414821594953537</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4161229133605957</v>
+        <v>0.4175414741039276</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4164637923240662</v>
+        <v>0.4164445698261261</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4165637791156769</v>
+        <v>0.4163943231105804</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4163431823253632</v>
+        <v>0.4162730276584625</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4163352847099304</v>
+        <v>0.4160192906856537</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7561503052711487</v>
+        <v>0.4162319898605347</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7540369033813477</v>
+        <v>0.4155318737030029</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7562876343727112</v>
+        <v>0.7564379572868347</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>0.756590723991394</v>
+        <v>0.7575299739837646</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7595800161361694</v>
+        <v>0.7587267756462097</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7570170164108276</v>
+        <v>0.75616854429245</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7555068135261536</v>
+        <v>0.7565236687660217</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7572864294052124</v>
+        <v>0.7562980055809021</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>0.756862998008728</v>
+        <v>0.7568224668502808</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
-        <v>0.75632643699646</v>
+        <v>0.7555561661720276</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7565706372261047</v>
+        <v>0.7579841017723083</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7569939494132996</v>
+        <v>0.7562898993492126</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C20" t="n">
-        <v>0.756852924823761</v>
+        <v>0.7567201256752014</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7552864551544189</v>
+        <v>0.7569536566734314</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7576935887336731</v>
+        <v>0.7566263675689697</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +684,7 @@
         <v>70</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7566391229629517</v>
+        <v>0.7559902667999268</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C24" t="n">
-        <v>0.757628321647644</v>
+        <v>0.7558056116104126</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7563637495040894</v>
+        <v>0.7574281692504883</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7578621506690979</v>
+        <v>0.7573443055152893</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7548741102218628</v>
+        <v>0.7555862069129944</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7561219930648804</v>
+        <v>0.7553377747535706</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7574983835220337</v>
+        <v>0.7550097107887268</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7563149929046631</v>
+        <v>0.7561801075935364</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,109 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7571914196014404</v>
+        <v>0.7564487457275391</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>111</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7561635375022888</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>113</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.7561308145523071</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>121</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7580829262733459</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>123</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7543004155158997</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>125</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7567744851112366</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>128</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7560036182403564</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>129</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.7569862604141235</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>145</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7560465335845947</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>147</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7541326880455017</v>
       </c>
     </row>
   </sheetData>
